--- a/public/assets/result/Liana_5.xlsx
+++ b/public/assets/result/Liana_5.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="36">
   <si>
     <t>REPUBLIK INDONESIA</t>
   </si>
@@ -121,13 +121,10 @@
     <t>PML</t>
   </si>
   <si>
-    <t>s</t>
-  </si>
-  <si>
     <t>WAHYU RAZI INDRAWAN</t>
   </si>
   <si>
-    <t>EKO ANDRIANTO</t>
+    <t>LIANA</t>
   </si>
 </sst>
 </file>
@@ -880,16 +877,16 @@
         <v>24</v>
       </c>
       <c r="I13" s="5">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="J13" s="5">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="K13" s="5">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="L13" s="5">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="M13" s="5">
         <v>2</v>
@@ -917,16 +914,16 @@
         <v>28</v>
       </c>
       <c r="I14" s="5">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="J14" s="5">
-        <v>121</v>
+        <v>17</v>
       </c>
       <c r="K14" s="5">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="L14" s="5">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="M14" s="5">
         <v>2</v>
@@ -978,9 +975,7 @@
       <c r="N19" s="1"/>
     </row>
     <row r="20" spans="1:14">
-      <c r="K20" s="4" t="s">
-        <v>34</v>
-      </c>
+      <c r="K20" s="4"/>
       <c r="L20" s="4"/>
       <c r="N20" s="1"/>
     </row>
@@ -996,10 +991,10 @@
     </row>
     <row r="23" spans="1:14">
       <c r="D23" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="K23" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="K23" s="4" t="s">
-        <v>36</v>
       </c>
       <c r="L23" s="4"/>
       <c r="N23" s="1"/>
